--- a/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna-\Dropbox\Info\4.Semester\SEPM\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D0AF14-7279-44C4-A715-9ABC9DFA488A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A9B83-5BED-43EC-8E72-050737FD18EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,14 @@
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -109,6 +115,18 @@
   </si>
   <si>
     <t xml:space="preserve">UML Beschreibung </t>
+  </si>
+  <si>
+    <t>Workshop Bloothoot LE</t>
+  </si>
+  <si>
+    <t>PS-Einheit</t>
+  </si>
+  <si>
+    <t>Teambesprechung</t>
+  </si>
+  <si>
+    <t>Zeitplan erstellen</t>
   </si>
 </sst>
 </file>
@@ -589,20 +607,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="1025" width="10.4140625" customWidth="1"/>
   </cols>
@@ -645,6 +663,9 @@
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4">
@@ -686,6 +707,48 @@
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9">
+        <v>43906</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9">
+        <v>43906</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9">
+        <v>43906</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +764,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>C2:C5</xm:sqref>
+          <xm:sqref>C2:C5 C7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna-\Dropbox\Info\4.Semester\SEPM\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A9B83-5BED-43EC-8E72-050737FD18EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABDB495-9994-401A-B8CA-42515528306F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Zeitplan erstellen</t>
+  </si>
+  <si>
+    <t>Konzeptplan finalisierern</t>
   </si>
 </sst>
 </file>
@@ -607,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.5"/>
@@ -749,6 +752,20 @@
       </c>
       <c r="D9" s="7" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9">
+        <v>43908</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna-\Dropbox\Info\4.Semester\SEPM\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABDB495-9994-401A-B8CA-42515528306F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D939048B-5771-496D-B019-2B4EEB396912}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -117,9 +117,6 @@
     <t xml:space="preserve">UML Beschreibung </t>
   </si>
   <si>
-    <t>Workshop Bloothoot LE</t>
-  </si>
-  <si>
     <t>PS-Einheit</t>
   </si>
   <si>
@@ -130,6 +127,15 @@
   </si>
   <si>
     <t>Konzeptplan finalisierern</t>
+  </si>
+  <si>
+    <t>Workshop Blootooth LE</t>
+  </si>
+  <si>
+    <t>Konzeptplan Besprechung</t>
+  </si>
+  <si>
+    <t>Design Skeleton</t>
   </si>
 </sst>
 </file>
@@ -610,13 +616,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.5"/>
@@ -667,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -723,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -737,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -748,10 +754,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -762,10 +768,38 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9">
+        <v>43913</v>
+      </c>
+      <c r="B11" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9">
+        <v>43916</v>
+      </c>
+      <c r="B12" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna-\Dropbox\Info\4.Semester\SEPM\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D939048B-5771-496D-B019-2B4EEB396912}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB76A6C-E2E0-4DBE-B899-4519B4E79FDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,14 @@
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -72,6 +74,9 @@
     <t>Teilnahme an Vorbesprechung</t>
   </si>
   <si>
+    <t>PS-Einheit</t>
+  </si>
+  <si>
     <t>Koordination und Projektmanagement</t>
   </si>
   <si>
@@ -81,6 +86,39 @@
     <t>Softwarekonzept</t>
   </si>
   <si>
+    <t>UML Diagramm &amp;  Komponentendiagramm erstellt, Technikeinsatz Ausarbeitung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UML Beschreibung </t>
+  </si>
+  <si>
+    <t>Workshop Blootooth LE</t>
+  </si>
+  <si>
+    <t>Teambesprechung</t>
+  </si>
+  <si>
+    <t>Zeitplan erstellen</t>
+  </si>
+  <si>
+    <t>Konzeptplan finalisierern</t>
+  </si>
+  <si>
+    <t>Konzeptplan Besprechung</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Design Skeleton</t>
+  </si>
+  <si>
+    <t>Workshop Raspberry and BLE</t>
+  </si>
+  <si>
+    <t>Urlaube und Feiertage,Kalender zum Eintragen und Verwalten von Urlaub</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -102,40 +140,10 @@
     <t>Software/System Design und Architektur</t>
   </si>
   <si>
-    <t>Implementierung</t>
-  </si>
-  <si>
     <t>Tests</t>
   </si>
   <si>
     <t>Konfiguration und Deployment</t>
-  </si>
-  <si>
-    <t>UML Diagramm &amp;  Komponentendiagramm erstellt, Technikeinsatz Ausarbeitung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UML Beschreibung </t>
-  </si>
-  <si>
-    <t>PS-Einheit</t>
-  </si>
-  <si>
-    <t>Teambesprechung</t>
-  </si>
-  <si>
-    <t>Zeitplan erstellen</t>
-  </si>
-  <si>
-    <t>Konzeptplan finalisierern</t>
-  </si>
-  <si>
-    <t>Workshop Blootooth LE</t>
-  </si>
-  <si>
-    <t>Konzeptplan Besprechung</t>
-  </si>
-  <si>
-    <t>Design Skeleton</t>
   </si>
 </sst>
 </file>
@@ -616,22 +624,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
     <col min="4" max="4" width="66.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="10.4140625" customWidth="1"/>
+    <col min="5" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="31">
@@ -673,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -684,10 +692,10 @@
         <v>2.0833333333333301E-2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -698,10 +706,10 @@
         <v>0.1875</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -712,10 +720,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -729,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -740,10 +748,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -754,10 +762,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -768,10 +776,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -785,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -796,10 +804,38 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9">
+        <v>43920</v>
+      </c>
+      <c r="B13" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9">
+        <v>43926</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.1875</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -829,19 +865,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="1025" width="10.4140625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.58203125" customWidth="1"/>
+    <col min="3" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -857,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -865,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -873,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -881,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -889,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -897,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -905,7 +941,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -913,7 +949,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -921,7 +957,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -929,7 +965,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna-\Dropbox\Info\4.Semester\SEPM\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB76A6C-E2E0-4DBE-B899-4519B4E79FDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEEEE55-EFCD-4787-A7A5-096A60B34902}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -144,6 +142,12 @@
   </si>
   <si>
     <t>Konfiguration und Deployment</t>
+  </si>
+  <si>
+    <t>Urlaube und Konfiguration Projekt</t>
+  </si>
+  <si>
+    <t>Problembehebung für Holiday Branch, Frontend Anpassungen</t>
   </si>
 </sst>
 </file>
@@ -624,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5"/>
@@ -836,6 +840,34 @@
       </c>
       <c r="D14" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B15" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9">
+        <v>43932</v>
+      </c>
+      <c r="B16" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna-\Dropbox\Info\4.Semester\SEPM\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEEEE55-EFCD-4787-A7A5-096A60B34902}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEEEE55-EFCD-4787-A7A5-096A60B34902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,14 @@
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -117,6 +119,18 @@
     <t>Urlaube und Feiertage,Kalender zum Eintragen und Verwalten von Urlaub</t>
   </si>
   <si>
+    <t>Urlaube und Konfiguration Projekt</t>
+  </si>
+  <si>
+    <t>Problembehebung für Holiday Branch, Frontend Anpassungen</t>
+  </si>
+  <si>
+    <t>Merging Holiday Branch mit develop</t>
+  </si>
+  <si>
+    <t>Zeitplan anpassen</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -142,12 +156,6 @@
   </si>
   <si>
     <t>Konfiguration und Deployment</t>
-  </si>
-  <si>
-    <t>Urlaube und Konfiguration Projekt</t>
-  </si>
-  <si>
-    <t>Problembehebung für Holiday Branch, Frontend Anpassungen</t>
   </si>
 </sst>
 </file>
@@ -332,7 +340,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -628,25 +636,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
-    <col min="2" max="2" width="9.58203125" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" customWidth="1"/>
-    <col min="4" max="4" width="66.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
+    <col min="4" max="4" width="66.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="31">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="30.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -867,7 +875,46 @@
         <v>17</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9">
+        <v>43938</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -897,19 +944,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.58203125" customWidth="1"/>
-    <col min="3" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="3" max="1025" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -933,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -941,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -949,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -957,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -965,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -981,7 +1028,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -989,7 +1036,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna-\Dropbox\Info\4.Semester\SEPM\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEEEE55-EFCD-4787-A7A5-096A60B34902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DBA5B6-557D-4DF2-8DDA-604DDCC73D6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,12 @@
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -131,6 +129,9 @@
     <t>Zeitplan anpassen</t>
   </si>
   <si>
+    <t>Kalender einfügen, Datenbank befüllen</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -156,6 +157,21 @@
   </si>
   <si>
     <t>Konfiguration und Deployment</t>
+  </si>
+  <si>
+    <t>Bug fixing, anpassen von Kleinigkeiten</t>
+  </si>
+  <si>
+    <t>Proseminar</t>
+  </si>
+  <si>
+    <t>Kalenderanpassungen, Datenbankmmodifikationen</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Modifikationen Dashboard und Vacation</t>
   </si>
 </sst>
 </file>
@@ -340,7 +356,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -636,25 +652,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="42.875" customWidth="1"/>
-    <col min="4" max="4" width="66.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="66.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="30.95">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +857,7 @@
         <v>43926</v>
       </c>
       <c r="B14" s="10">
-        <v>0.1875</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -869,7 +885,7 @@
         <v>43932</v>
       </c>
       <c r="B16" s="10">
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -878,7 +894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75">
+    <row r="17" spans="1:4">
       <c r="A17" s="9">
         <v>43935</v>
       </c>
@@ -916,6 +932,124 @@
       <c r="C19" t="s">
         <v>17</v>
       </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9">
+        <v>43940</v>
+      </c>
+      <c r="B20" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9">
+        <v>43940</v>
+      </c>
+      <c r="B21" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9">
+        <v>43941</v>
+      </c>
+      <c r="B22" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="9">
+        <v>43945</v>
+      </c>
+      <c r="B23" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9">
+        <v>43948</v>
+      </c>
+      <c r="B24" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9">
+        <v>43952</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9">
+        <v>43952</v>
+      </c>
+      <c r="B26" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9">
+        <v>43954</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -944,19 +1078,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
-    <col min="3" max="1025" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.58203125" customWidth="1"/>
+    <col min="3" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -980,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -988,7 +1122,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -996,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1004,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1012,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1028,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1036,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna-\Dropbox\Info\4.Semester\SEPM\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DBA5B6-557D-4DF2-8DDA-604DDCC73D6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685F5EEE-0560-4C60-B100-CC005B1BBEFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -132,6 +132,24 @@
     <t>Kalender einfügen, Datenbank befüllen</t>
   </si>
   <si>
+    <t>Bug fixing, anpassen von Kleinigkeiten</t>
+  </si>
+  <si>
+    <t>Proseminar</t>
+  </si>
+  <si>
+    <t>Kalenderanpassungen, Datenbankmmodifikationen</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Modifikationen Dashboard und Vacation</t>
+  </si>
+  <si>
+    <t>Tasks erstellen</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -159,19 +177,13 @@
     <t>Konfiguration und Deployment</t>
   </si>
   <si>
-    <t>Bug fixing, anpassen von Kleinigkeiten</t>
-  </si>
-  <si>
-    <t>Proseminar</t>
-  </si>
-  <si>
-    <t>Kalenderanpassungen, Datenbankmmodifikationen</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Modifikationen Dashboard und Vacation</t>
+    <t>Statistiken start</t>
+  </si>
+  <si>
+    <t>DB Datenbefüllen, AuditLog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -652,22 +664,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
-    <col min="2" max="2" width="9.58203125" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+    <col min="6" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="31">
@@ -961,7 +974,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -975,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -989,7 +1002,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1017,7 +1030,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1045,15 +1058,87 @@
         <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="10"/>
+      <c r="A28" s="9">
+        <v>43955</v>
+      </c>
+      <c r="B28" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9">
+        <v>43955</v>
+      </c>
+      <c r="B29" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9">
+        <v>43955</v>
+      </c>
+      <c r="B30" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9">
+        <v>43957</v>
+      </c>
+      <c r="B31" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9">
+        <v>43961</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1087,10 +1172,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1114,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1122,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1130,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1138,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1146,7 +1231,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1162,7 +1247,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1170,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna-\Dropbox\Info\4.Semester\SEPM\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685F5EEE-0560-4C60-B100-CC005B1BBEFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D7601E-BEB2-492C-B6EB-9F6FC66C4718}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -183,7 +183,7 @@
     <t>DB Datenbefüllen, AuditLog</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>AuditLog</t>
   </si>
 </sst>
 </file>
@@ -664,13 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5"/>
@@ -1131,8 +1131,45 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="1:4">
+      <c r="A33" s="9">
+        <v>43966</v>
+      </c>
+      <c r="B33" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
       <c r="D33" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9">
+        <v>43968</v>
+      </c>
+      <c r="B34" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9">
+        <v>43968</v>
+      </c>
+      <c r="B35" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna-\Dropbox\Info\4.Semester\SEPM\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D7601E-BEB2-492C-B6EB-9F6FC66C4718}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B0D1D2-BB68-49A8-BDAA-56C007A4B98A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -180,10 +180,37 @@
     <t>Statistiken start</t>
   </si>
   <si>
-    <t>DB Datenbefüllen, AuditLog</t>
-  </si>
-  <si>
-    <t>AuditLog</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DB Datenbefüllen, AuditLog Klassen erstellen</t>
+  </si>
+  <si>
+    <t>AuditLog in Klassen implementrieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AuditLog Änderungen </t>
+  </si>
+  <si>
+    <t>AuditLog Fehlerbehebung, view ansicht</t>
+  </si>
+  <si>
+    <t>AuditLog Erweiterung, Code Kommentieren</t>
+  </si>
+  <si>
+    <t>AuditLog fertig, Code Kommentieren</t>
+  </si>
+  <si>
+    <t>Überarbeitung UML</t>
+  </si>
+  <si>
+    <t>Filterfunktion AuditLog</t>
+  </si>
+  <si>
+    <t>Testdrehbuch</t>
+  </si>
+  <si>
+    <t>Überarbeitung Konzeptbeschreibung, Testdrehbuch</t>
   </si>
 </sst>
 </file>
@@ -664,13 +691,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5"/>
@@ -1128,10 +1155,10 @@
         <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="9">
         <v>43966</v>
       </c>
@@ -1142,10 +1169,10 @@
         <v>17</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="9">
         <v>43968</v>
       </c>
@@ -1159,7 +1186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="9">
         <v>43968</v>
       </c>
@@ -1170,7 +1197,136 @@
         <v>17</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="9">
+        <v>43972</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="9">
+        <v>43974</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9">
+        <v>43975</v>
+      </c>
+      <c r="B38" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="9">
+        <v>43976</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9">
+        <v>43976</v>
+      </c>
+      <c r="B40" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9">
+        <v>43977</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9">
+        <v>43977</v>
+      </c>
+      <c r="B42" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9">
+        <v>43978</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9">
+        <v>43978</v>
+      </c>
+      <c r="B44" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Anna-Lena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna-\Dropbox\Info\4.Semester\SEPM\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B0D1D2-BB68-49A8-BDAA-56C007A4B98A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0561490A-BA32-4EB7-A31E-C83319B06BB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -212,6 +212,21 @@
   <si>
     <t>Überarbeitung Konzeptbeschreibung, Testdrehbuch</t>
   </si>
+  <si>
+    <t>Teambesprechung; Besprechung Abnahmetest</t>
+  </si>
+  <si>
+    <t>Team filtern</t>
+  </si>
+  <si>
+    <t>Teambesprechen</t>
+  </si>
+  <si>
+    <t>letzte Änderungen, Fertigstellung</t>
+  </si>
+  <si>
+    <t>Letztes Proseminar</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +234,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="h:mm"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -298,17 +313,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -691,30 +706,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.9140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.08203125" customWidth="1"/>
     <col min="6" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="31">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -725,27 +740,27 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43892</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43899</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
@@ -753,136 +768,136 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43899</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="9">
         <v>2.0833333333333301E-2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43902</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="9">
         <v>0.1875</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>43904</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>43906</v>
       </c>
-      <c r="B7" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>43906</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>43906</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>3.125E-2</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>43908</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>43913</v>
       </c>
-      <c r="B11" s="10">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>43916</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>43920</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C13" t="s">
@@ -893,10 +908,10 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>43926</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>0.20833333333333334</v>
       </c>
       <c r="C14" t="s">
@@ -907,52 +922,52 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>43929</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>43932</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>43935</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>43935</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C18" t="s">
@@ -963,10 +978,10 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>43938</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>0.125</v>
       </c>
       <c r="C19" t="s">
@@ -977,226 +992,226 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>43940</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>43940</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>6.25E-2</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>43941</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>43945</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>43948</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>43952</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>0.125</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <v>43952</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>43954</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>0.125</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>43955</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>43955</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>43955</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>43957</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="9">
+      <c r="A32" s="7">
         <v>43961</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>0.125</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>43966</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>43968</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>43968</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E35" t="s">
@@ -1204,130 +1219,228 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>43972</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>0.16666666666666666</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>43974</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>0.125</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>43975</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>43976</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>0.16666666666666666</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="9">
+      <c r="A40" s="7">
         <v>43976</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="9">
+      <c r="A41" s="7">
         <v>43977</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>0.29166666666666669</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>43977</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>43978</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>0.25</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="9">
+      <c r="A44" s="7">
         <v>43978</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="7">
+        <v>43985</v>
+      </c>
+      <c r="B45" s="9">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="7">
+        <v>43989</v>
+      </c>
+      <c r="B46" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7">
+        <v>43990</v>
+      </c>
+      <c r="B47" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="7">
+        <v>43995</v>
+      </c>
+      <c r="B48" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7">
+        <v>43997</v>
+      </c>
+      <c r="B49" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7">
+        <v>43998</v>
+      </c>
+      <c r="B50" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7">
+        <v>44000</v>
+      </c>
+      <c r="B51" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1364,10 +1477,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>33</v>
       </c>
     </row>
